--- a/resources/user_data.xlsx
+++ b/resources/user_data.xlsx
@@ -54,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -66,13 +66,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -173,19 +184,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -209,6 +220,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -225,10 +237,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -405,11 +417,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -418,34 +433,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -693,12 +708,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -989,7 +1004,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1269,9 +1284,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
